--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rd832067674b742de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rfa0b9be0e2b34d57"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rca8d3fb273ad4eb6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb21c269d6fdc4d94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bb497bc1bf64994"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7eea0b86d820407f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rfa0b9be0e2b34d57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R66b57c7fe1354883"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb21c269d6fdc4d94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb321e53a8b194625"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7eea0b86d820407f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfbc19c0227084990"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R66b57c7fe1354883"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R965118e7d9404b21"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb321e53a8b194625"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6fa280c628344e04"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfbc19c0227084990"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b08fb2181c6499f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R965118e7d9404b21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R838a394259004346"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6fa280c628344e04"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R861940f8cb104466"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b08fb2181c6499f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1135d3203bc40ef"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R838a394259004346"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rda7810167cac4207"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R861940f8cb104466"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfbe40511b7d402d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1135d3203bc40ef"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0b34056737be4f32"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rda7810167cac4207"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R8f57ed27425542a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfbe40511b7d402d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa5305087ab84b56"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0b34056737be4f32"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re89ffa34b18c43cf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R8f57ed27425542a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R3d749ea19f2d4009"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa5305087ab84b56"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59b7049cdcbb46cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re89ffa34b18c43cf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3048ee9fcd3d44ad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R3d749ea19f2d4009"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rd557bcea3c4f4d9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59b7049cdcbb46cd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R437b0a3d3b2145db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3048ee9fcd3d44ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5a239d5056ce4797"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Rd557bcea3c4f4d9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Ra77c47ff95cb45b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R437b0a3d3b2145db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R90d8bff3697f49c4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5a239d5056ce4797"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cd4656e3c6a44e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="Ra77c47ff95cb45b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R97a366ca12ca4278"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R90d8bff3697f49c4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4bcb51321b04abf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cd4656e3c6a44e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R674dd52daa394181"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R97a366ca12ca4278"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R629f4dd909274bdc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4bcb51321b04abf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d89c42350b34922"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R674dd52daa394181"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra7259b311cca4b46"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/105_BarChartWithCustomColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R629f4dd909274bdc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Sales" sheetId="1" r:id="R101c5bb36ec942cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -251,7 +251,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d89c42350b34922"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5585757976464a6a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -319,6 +319,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra7259b311cca4b46"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R13cafe5c63344431"/>
 </x:worksheet>
 </file>